--- a/test/test_singlezone/steady_09/正解値09.xlsx
+++ b/test/test_singlezone/steady_09/正解値09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE375A6-D810-46D0-B2E5-86728F6141AB}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AF42F9-DBE8-473C-A316-494C20D100B2}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3015" windowWidth="21510" windowHeight="10935" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -2581,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:N28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2930,7 +2930,7 @@
         <v>0.5</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ref="O23:O28" si="4">$D$26*K23+$D$27*L23+$D$33*M23</f>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="R23" s="1">
         <f>$D$25+O23*N23*0.04</f>
-        <v>0</v>
+        <v>4.0800000000000027</v>
       </c>
       <c r="S23" s="1">
         <v>1</v>
@@ -2978,23 +2978,23 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="5">
         <f t="shared" ref="AB23:AB28" ca="1" si="9">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
-        <v>10.742677274972861</v>
+        <v>15.29442778071061</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ref="AC23:AC28" ca="1" si="10">($D$48*$V23+$D$49*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
-        <v>21.018281624946869</v>
+        <v>26.021271744868606</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ref="AD23:AD28" ca="1" si="11">($D$48-$AB23)*$V23</f>
-        <v>97.44951468074035</v>
+        <v>98.821813041908854</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ref="AE23:AE28" ca="1" si="12">($D$49-$AB23)*$U23</f>
-        <v>-4.0349296809767514</v>
+        <v>-1.3050497313817455</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" ref="AF23:AF28" ca="1" si="13">SUM($AD23,$AE23)</f>
-        <v>93.414584999763605</v>
+        <v>97.516763310527111</v>
       </c>
       <c r="AG23" s="1">
         <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AH23" s="15">
         <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
-        <v>10.302483824550057</v>
+        <v>14.766416920093679</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
@@ -3043,7 +3043,7 @@
         <v>0.5</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="4"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="R24" s="1">
         <f>$D$25+O24*N24*0.04</f>
-        <v>0</v>
+        <v>4.0800000000000027</v>
       </c>
       <c r="S24" s="1">
         <v>1</v>
@@ -3091,23 +3091,23 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>10.742677274972861</v>
+        <v>15.29442778071061</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21.018281624946869</v>
+        <v>26.021271744868606</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>97.44951468074035</v>
+        <v>98.821813041908854</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.0349296809767514</v>
+        <v>-1.3050497313817455</v>
       </c>
       <c r="AF24" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>93.414584999763605</v>
+        <v>97.516763310527111</v>
       </c>
       <c r="AG24" s="1">
         <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
@@ -3155,7 +3155,7 @@
         <v>0.5</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O25" s="1">
         <f>$D$26*K25+$D$27*L25+$D$33*M25</f>
@@ -3195,33 +3195,33 @@
         <v>0.04</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="7"/>
-        <v>7.4999999999999997E-2</v>
+        <f ca="1">1/4.65-SUM(W25:X25)</f>
+        <v>6.5053763440860057E-2</v>
       </c>
       <c r="Z25" s="1">
         <f ca="1">1/(1/$V25+$Y25+$X25)</f>
-        <v>2.2531639699224311</v>
+        <v>2.3048160543761158</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="5">
         <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
-        <v>6.7409186347657482</v>
+        <v>8.5245512700515942</v>
       </c>
       <c r="AC25" s="1">
         <f ca="1">($D$48*$V25+$D$49*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
-        <v>21.018281624946869</v>
+        <v>26.021271744868606</v>
       </c>
       <c r="AD25" s="1">
         <f ca="1">($D$48-$AB25)*$V25</f>
-        <v>109.61956059676361</v>
+        <v>119.41018815097422</v>
       </c>
       <c r="AE25" s="1">
         <f ca="1">($D$49-$AB25)*$U25</f>
-        <v>20.174648404882799</v>
+        <v>39.650907074634752</v>
       </c>
       <c r="AF25" s="4">
         <f ca="1">SUM($AD25,$AE25)</f>
-        <v>129.79420900164641</v>
+        <v>159.06109522560897</v>
       </c>
       <c r="AG25" s="1">
         <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
@@ -3265,7 +3265,7 @@
         <v>0.5</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="4"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="R26" s="1">
         <f t="shared" ref="R26:R28" si="14">$D$25+O26*N26*0.04</f>
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="S26" s="1">
         <v>1</v>
@@ -3313,23 +3313,23 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>10.742677274972861</v>
+        <v>15.294427780710608</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21.018281624946869</v>
+        <v>26.021271744868606</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>97.44951468074035</v>
+        <v>98.821813041908854</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.0349296809767514</v>
+        <v>-1.3050497313817349</v>
       </c>
       <c r="AF26" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>93.414584999763605</v>
+        <v>97.516763310527125</v>
       </c>
       <c r="AG26" s="1">
         <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="4"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="R27" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S27" s="1">
         <v>1</v>
@@ -3424,23 +3424,23 @@
       </c>
       <c r="AB27" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>10.742677274972861</v>
+        <v>14.160205558488382</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21.018281624946869</v>
+        <v>26.021271744868606</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>97.44951468074035</v>
+        <v>102.27118062363387</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.0349296809767514</v>
+        <v>5.5566937980043765</v>
       </c>
       <c r="AF27" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>93.414584999763605</v>
+        <v>107.82787442163824</v>
       </c>
       <c r="AG27" s="1">
         <v>0.45</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="4"/>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="R28" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="S28" s="1">
         <v>1</v>
@@ -3531,23 +3531,23 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>10.742677274972861</v>
+        <v>21.904205558488389</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>21.018281624946869</v>
+        <v>26.021271744868606</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>97.44951468074035</v>
+        <v>78.72032610013207</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-4.0349296809767514</v>
+        <v>-41.292451678493791</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>93.414584999763605</v>
+        <v>37.427874421638279</v>
       </c>
       <c r="AG28" s="1">
         <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
@@ -3586,11 +3586,11 @@
       <c r="F30" s="1"/>
       <c r="AC30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
-        <v>21.0182816249469, 21.0182816249469, 21.0182816249469, 21.0182816249469, 21.0182816249469, 21.0182816249469</v>
+        <v>26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686</v>
       </c>
       <c r="AF30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
-        <v>93.4145849997636, 93.4145849997636, 129.794209001646, 93.4145849997636, 93.4145849997636, 93.4145849997636</v>
+        <v>97.5167633105271, 97.5167633105271, 159.061095225609, 97.5167633105271, 107.827874421638, 37.4278744216383</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">SUMPRODUCT($Z$23:$Z$28,$S$23:$S$28)+$D$24*$D$34</f>
-        <v>13.518983819534586</v>
+        <v>13.570635903988272</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">SUM($AD$23:$AD$28)</f>
-        <v>596.86713400046528</v>
+        <v>596.86713400046676</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">SUM($D$45:$D$46)</f>
-        <v>596.86713400046528</v>
+        <v>596.86713400046676</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>2</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D48" s="5">
         <f ca="1">$D$48+($D$36-$D$47-D53)/$D$35</f>
-        <v>42.786059859438268</v>
+        <v>47.789049979359916</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
-        <v>10.075717501605009</v>
+        <v>15.078707621526696</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
@@ -3910,7 +3910,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">D48+D37*(1-D38)/D50</f>
-        <v>258.10609377014043</v>
+        <v>263.1090838900621</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -3925,7 +3925,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <f ca="1">D50*(D48-D52)</f>
-        <v>-596.86713400046631</v>
+        <v>-596.86713400046642</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>91</v>

--- a/test/test_singlezone/steady_09/正解値09.xlsx
+++ b/test/test_singlezone/steady_09/正解値09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AF42F9-DBE8-473C-A316-494C20D100B2}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{6C48575F-32CC-49B3-823E-1C3D46D021BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B11DE9E7-625E-4BBC-8731-8886765F7F9A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -1976,7 +1976,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>36634</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>80597</xdr:rowOff>
+      <xdr:rowOff>76787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2352,24 +2352,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057D0BD2-17D5-49FF-838C-CD87363E756B}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="7"/>
-    <col min="6" max="6" width="12.875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="7"/>
+    <col min="2" max="2" width="6.37890625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.234375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.76171875" style="7"/>
+    <col min="6" max="6" width="12.85546875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.76171875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2379,7 +2380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.85">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>68</v>
@@ -2403,7 +2404,7 @@
         <v>1.199999999980782</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A4" s="6" t="s">
         <v>82</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A5" s="6" t="s">
         <v>82</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A7" s="6" t="s">
         <v>83</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A9" s="6" t="s">
         <v>75</v>
       </c>
@@ -2579,131 +2580,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="13" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.125" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.37890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.76171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.37890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.37890625" customWidth="1"/>
+    <col min="12" max="13" width="21.234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.234375" customWidth="1"/>
+    <col min="15" max="15" width="13.37890625" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.37890625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.6171875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.234375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6171875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6171875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6171875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.6171875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.85">
       <c r="K20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A21" s="24" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A22" s="25" t="s">
         <v>45</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
@@ -2978,23 +2980,23 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="5">
         <f t="shared" ref="AB23:AB28" ca="1" si="9">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
-        <v>15.29442778071061</v>
+        <v>15.325062446371678</v>
       </c>
       <c r="AC23" s="1">
         <f t="shared" ref="AC23:AC28" ca="1" si="10">($D$48*$V23+$D$49*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
-        <v>26.021271744868606</v>
+        <v>26.081209134205459</v>
       </c>
       <c r="AD23" s="1">
         <f t="shared" ref="AD23:AD28" ca="1" si="11">($D$48-$AB23)*$V23</f>
-        <v>98.821813041908854</v>
+        <v>92.237584791402384</v>
       </c>
       <c r="AE23" s="1">
         <f t="shared" ref="AE23:AE28" ca="1" si="12">($D$49-$AB23)*$U23</f>
-        <v>-1.3050497313817455</v>
+        <v>5.5455669161772994</v>
       </c>
       <c r="AF23" s="4">
         <f t="shared" ref="AF23:AF28" ca="1" si="13">SUM($AD23,$AE23)</f>
-        <v>97.516763310527111</v>
+        <v>97.783151707579677</v>
       </c>
       <c r="AG23" s="1">
         <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
@@ -3002,10 +3004,10 @@
       </c>
       <c r="AH23" s="15">
         <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
-        <v>14.766416920093679</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+        <v>15.544424357535711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="1" t="s">
@@ -3091,30 +3093,30 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>15.29442778071061</v>
+        <v>15.325062446371678</v>
       </c>
       <c r="AC24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>26.081209134205459</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>98.821813041908854</v>
+        <v>92.237584791402384</v>
       </c>
       <c r="AE24" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.3050497313817455</v>
+        <v>5.5455669161772994</v>
       </c>
       <c r="AF24" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>97.516763310527111</v>
+        <v>97.783151707579677</v>
       </c>
       <c r="AG24" s="1">
         <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
@@ -3163,15 +3165,15 @@
       </c>
       <c r="P25" s="1">
         <f>$D$26*K25*$D$41+($D$27*L25+$D$33*M25)*$D$42</f>
-        <v>-38.062181611969919</v>
+        <v>23.716483626680947</v>
       </c>
       <c r="Q25" s="1">
         <f>$D$26*K25*$D$39+($D$27*L25+$D$33*M25)*$D$40</f>
-        <v>596.86713400046642</v>
+        <v>536.69911960749562</v>
       </c>
       <c r="R25" s="1">
         <f>$D$25+P25/4.65</f>
-        <v>-8.1854154004236381</v>
+        <v>5.1003190595012784</v>
       </c>
       <c r="S25" s="1">
         <v>1</v>
@@ -3205,30 +3207,30 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="5">
         <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
-        <v>8.5245512700515942</v>
+        <v>15.349483860994265</v>
       </c>
       <c r="AC25" s="1">
         <f ca="1">($D$48*$V25+$D$49*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
-        <v>26.021271744868606</v>
+        <v>26.081209134205459</v>
       </c>
       <c r="AD25" s="1">
         <f ca="1">($D$48-$AB25)*$V25</f>
-        <v>119.41018815097422</v>
+        <v>92.1633150105353</v>
       </c>
       <c r="AE25" s="1">
         <f ca="1">($D$49-$AB25)*$U25</f>
-        <v>39.650907074634752</v>
+        <v>5.3978238368390423</v>
       </c>
       <c r="AF25" s="4">
         <f ca="1">SUM($AD25,$AE25)</f>
-        <v>159.06109522560897</v>
+        <v>97.561138847374338</v>
       </c>
       <c r="AG25" s="1">
         <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
@@ -3313,30 +3315,30 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>15.294427780710608</v>
+        <v>15.325062446371678</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>26.081209134205459</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>98.821813041908854</v>
+        <v>92.237584791402384</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-1.3050497313817349</v>
+        <v>5.5455669161772994</v>
       </c>
       <c r="AF26" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>97.516763310527125</v>
+        <v>97.783151707579677</v>
       </c>
       <c r="AG26" s="1">
         <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
@@ -3424,29 +3426,29 @@
       </c>
       <c r="AB27" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>14.160205558488382</v>
+        <v>14.190840224149454</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>26.081209134205459</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>102.27118062363387</v>
+        <v>95.686952373127397</v>
       </c>
       <c r="AE27" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5.5566937980043765</v>
+        <v>12.4073104455634</v>
       </c>
       <c r="AF27" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>107.82787442163824</v>
+        <v>108.09426281869079</v>
       </c>
       <c r="AG27" s="1">
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="1" t="s">
@@ -3531,30 +3533,30 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>21.904205558488389</v>
+        <v>21.934840224149461</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>26.021271744868606</v>
+        <v>26.081209134205459</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>78.72032610013207</v>
+        <v>72.1360978496256</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>-41.292451678493791</v>
+        <v>-34.441835030934769</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>37.427874421638279</v>
+        <v>37.694262818690831</v>
       </c>
       <c r="AG28" s="1">
         <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="1" t="s">
@@ -3570,7 +3572,7 @@
       <c r="F29" s="1"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
@@ -3586,14 +3588,14 @@
       <c r="F30" s="1"/>
       <c r="AC30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
-        <v>26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686, 26.0212717448686</v>
+        <v>26.0812091342055, 26.0812091342055, 26.0812091342055, 26.0812091342055, 26.0812091342055, 26.0812091342055</v>
       </c>
       <c r="AF30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
-        <v>97.5167633105271, 97.5167633105271, 159.061095225609, 97.5167633105271, 107.827874421638, 37.4278744216383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+        <v>97.7831517075797, 97.7831517075797, 97.5611388473743, 97.7831517075797, 108.094262818691, 37.6942628186908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
@@ -3609,7 +3611,7 @@
       <c r="F31" s="1"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.85">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
@@ -3624,7 +3626,7 @@
       <c r="F32" s="1"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
@@ -3639,7 +3641,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A34" s="18"/>
       <c r="B34" s="16" t="s">
         <v>19</v>
@@ -3657,7 +3659,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
@@ -3672,7 +3674,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="1" t="s">
@@ -3686,7 +3688,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="1" t="s">
@@ -3694,14 +3696,14 @@
       </c>
       <c r="D37" s="1">
         <f>Q25*S25</f>
-        <v>596.86713400046642</v>
+        <v>536.69911960749562</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="1" t="s">
@@ -3715,7 +3717,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A39" s="18"/>
       <c r="B39" s="16" t="s">
         <v>116</v>
@@ -3724,35 +3726,35 @@
         <v>117</v>
       </c>
       <c r="D39" s="1">
-        <v>0.83490926199443005</v>
+        <v>0.75058878824068798</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D40" s="1">
-        <v>0.71161013710588705</v>
+        <v>0.64061842132506297</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D41" s="22">
-        <v>-5.6023040000000003E-2</v>
+        <v>2.9463573123928902E-2</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>92</v>
@@ -3761,21 +3763,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D42" s="22">
-        <v>-3.2157008046334798E-2</v>
+        <v>4.5922679675081901E-2</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="1"/>
@@ -3783,7 +3785,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="1"/>
@@ -3791,7 +3793,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A45" s="25" t="s">
         <v>17</v>
       </c>
@@ -3803,14 +3805,14 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">SUM($AD$23:$AD$28)</f>
-        <v>596.86713400046676</v>
+        <v>536.69911960749539</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="1" t="s">
@@ -3825,7 +3827,7 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A47" s="27"/>
       <c r="B47" s="26"/>
       <c r="C47" s="1" t="s">
@@ -3833,14 +3835,14 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">SUM($D$45:$D$46)</f>
-        <v>596.86713400046676</v>
+        <v>536.69911960749539</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A48" s="27"/>
       <c r="B48" s="25" t="s">
         <v>20</v>
@@ -3850,14 +3852,14 @@
       </c>
       <c r="D48" s="5">
         <f ca="1">$D$48+($D$36-$D$47-D53)/$D$35</f>
-        <v>47.789049979359916</v>
+        <v>45.654656470733762</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="1" t="s">
@@ -3865,14 +3867,14 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
-        <v>15.078707621526696</v>
+        <v>16.241725274734698</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A50" s="19" t="s">
         <v>85</v>
       </c>
@@ -3888,7 +3890,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A51" s="20"/>
       <c r="B51" s="1" t="s">
         <v>87</v>
@@ -3902,7 +3904,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A52" s="20"/>
       <c r="B52" s="1" t="s">
         <v>89</v>
@@ -3910,14 +3912,14 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <f ca="1">D48+D37*(1-D38)/D50</f>
-        <v>263.1090838900621</v>
+        <v>239.26905748353883</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
         <v>90</v>
@@ -3925,7 +3927,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <f ca="1">D50*(D48-D52)</f>
-        <v>-596.86713400046642</v>
+        <v>-536.69911960749562</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>91</v>
